--- a/QuickReplyTools/bin/Debug/excel/数据表.xlsx
+++ b/QuickReplyTools/bin/Debug/excel/数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20670" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
   <si>
     <t>分类</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>话术</t>
+  </si>
+  <si>
+    <t>机长歌德.jpg</t>
   </si>
   <si>
     <t>拦截</t>
@@ -279,7 +282,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,29 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +344,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -370,6 +382,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -377,37 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -431,13 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -461,25 +457,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,31 +601,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,115 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,6 +669,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -688,6 +695,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,26 +715,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,146 +745,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,7 +1215,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1250,39 +1246,48 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1290,13 +1295,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1304,13 +1309,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1318,10 +1323,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1329,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1340,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1351,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1362,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1373,10 +1378,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1384,13 +1389,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1398,13 +1403,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1412,10 +1417,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1423,10 +1428,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1434,10 +1439,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1445,10 +1450,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1456,10 +1461,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1467,10 +1472,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1478,10 +1483,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1489,281 +1494,290 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1790,18 +1804,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
